--- a/Supplementary Information/Table_S1.xlsx
+++ b/Supplementary Information/Table_S1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eanttila/Documents/GitHub/Anttila_et_al_Khuvsgul_-submitted-/Supplementary Information/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eanttila/Documents/GitHub/Anttila_et_al_Khuvsgul_2024/Supplementary Information/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7068E163-DE0F-ED4A-8A7E-678077541128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756CE2E4-8990-AA41-A433-F2242656BDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="500" windowWidth="28040" windowHeight="16660" xr2:uid="{752FF074-5CAB-B744-8290-C483C9D49CBB}"/>
+    <workbookView xWindow="12520" yWindow="5240" windowWidth="28040" windowHeight="16660" xr2:uid="{752FF074-5CAB-B744-8290-C483C9D49CBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9596914-D0F7-974C-BCA4-3BDB1D162E04}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
